--- a/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table21.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/Table21.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb163/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb163/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45AADE6-11A3-5842-93EF-7A5C95461B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7EBED-4024-5546-A7C4-BFC2AECA99FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18200" yWindow="460" windowWidth="16980" windowHeight="26520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="50">
   <si>
     <t>Pounds</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -540,13 +543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.83203125" style="2" customWidth="1"/>
@@ -1491,13 +1494,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D57" s="2">
         <v>114422588</v>
